--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1770459.194291235</v>
+        <v>1753545.989543015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8249644.67835209</v>
+        <v>8112558.798638831</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11333548.73828869</v>
+        <v>11739719.61562467</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5555419.371461627</v>
+        <v>5522388.544570374</v>
       </c>
     </row>
     <row r="11">
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5445551021959</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -8708,7 +8710,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>193.8043404499591</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>98.33627724217631</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K12" t="n">
-        <v>116.8687478884136</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>113.6326844975279</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>65.55928413606537</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8848,25 +8850,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>100.511908746045</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L13" t="n">
-        <v>106.3833268567479</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M13" t="n">
-        <v>110.4244345231147</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N13" t="n">
-        <v>99.18419504074281</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O13" t="n">
-        <v>109.9551890273524</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P13" t="n">
-        <v>109.2266546246572</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.68672441001351</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -8942,10 +8944,10 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>137.8738156385968</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>128.9465097577767</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.163199883327223</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>33.47844654999392</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9018,7 +9020,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>76.81381649717527</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9085,25 +9087,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>35.65407805386261</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L16" t="n">
-        <v>41.52549616456551</v>
+        <v>45.48804342982321</v>
       </c>
       <c r="M16" t="n">
-        <v>45.56660383093228</v>
+        <v>49.52915109618998</v>
       </c>
       <c r="N16" t="n">
-        <v>57.66615937772856</v>
+        <v>38.28891161381812</v>
       </c>
       <c r="O16" t="n">
-        <v>45.09735833517001</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P16" t="n">
-        <v>44.36882393247484</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.14582151277307</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>87.68672441001351</v>
+        <v>78.08255436712473</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -9182,7 +9184,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6.163199883327223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710514</v>
       </c>
       <c r="K18" t="n">
-        <v>69.14317436020445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -9258,13 +9260,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>31.01105725476869</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.62259396934874</v>
+        <v>60.77531984677825</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>42.7161538044024</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983455</v>
       </c>
       <c r="K19" t="n">
-        <v>35.65407805386261</v>
+        <v>26.04990801097382</v>
       </c>
       <c r="L19" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167673</v>
       </c>
       <c r="M19" t="n">
-        <v>45.56660383093228</v>
+        <v>35.9624337880435</v>
       </c>
       <c r="N19" t="n">
-        <v>34.32636434856042</v>
+        <v>24.72219430567164</v>
       </c>
       <c r="O19" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228123</v>
       </c>
       <c r="P19" t="n">
-        <v>44.36882393247484</v>
+        <v>34.76465388958606</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.14582151277307</v>
+        <v>48.54165146988429</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>87.68672441001351</v>
+        <v>78.08255436712473</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -9419,7 +9421,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.9465097577767</v>
+        <v>119.3423397148879</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.163199883327223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710514</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>45.19519966320141</v>
+        <v>59.34792554062982</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>28.37836192377175</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9498,10 +9500,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.28350947186588</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>42.7161538044024</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272334</v>
+        <v>24.03207127983455</v>
       </c>
       <c r="K22" t="n">
-        <v>35.65407805386261</v>
+        <v>26.04990801097382</v>
       </c>
       <c r="L22" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167673</v>
       </c>
       <c r="M22" t="n">
-        <v>45.56660383093228</v>
+        <v>35.9624337880435</v>
       </c>
       <c r="N22" t="n">
-        <v>34.32636434856042</v>
+        <v>24.72219430567164</v>
       </c>
       <c r="O22" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228123</v>
       </c>
       <c r="P22" t="n">
-        <v>44.36882393247484</v>
+        <v>34.76465388958606</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.14582151277307</v>
+        <v>48.54165146988429</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>87.68672441001351</v>
+        <v>78.08255436712473</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -9656,7 +9658,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.9465097577767</v>
+        <v>131.9967666875188</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.163199883327223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.47844654999392</v>
+        <v>23.87427650710514</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -9723,22 +9725,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>39.17068376245676</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>49.23706432777166</v>
+        <v>39.63289428488288</v>
       </c>
       <c r="P24" t="n">
-        <v>65.27614280017461</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>42.7161538044024</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>24.03207127983455</v>
       </c>
       <c r="K25" t="n">
-        <v>35.65407805386261</v>
+        <v>26.04990801097382</v>
       </c>
       <c r="L25" t="n">
-        <v>41.52549616456551</v>
+        <v>31.92132612167673</v>
       </c>
       <c r="M25" t="n">
-        <v>45.56660383093228</v>
+        <v>35.9624337880435</v>
       </c>
       <c r="N25" t="n">
-        <v>34.32636434856042</v>
+        <v>24.72219430567164</v>
       </c>
       <c r="O25" t="n">
-        <v>45.09735833517001</v>
+        <v>35.49318829228123</v>
       </c>
       <c r="P25" t="n">
-        <v>44.36882393247484</v>
+        <v>34.76465388958606</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.14582151277307</v>
+        <v>48.54165146988429</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>104.2276923779817</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -9969,10 +9971,10 @@
         <v>53.19961159302936</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>68.19197946706107</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.58514123460644</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.70238736347565</v>
+        <v>118.6030303239377</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -10130,7 +10132,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.96217271123885</v>
+        <v>132.9090570230344</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>37.44099381525162</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>48.44480612294392</v>
       </c>
       <c r="L30" t="n">
-        <v>1.210862616663547</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M30" t="n">
-        <v>52.12447464256954</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.94507923191823</v>
       </c>
       <c r="O30" t="n">
-        <v>5.252727281233803</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.638256922810882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>39.6166253191203</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -10282,13 +10284,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>49.05990560042771</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3844868859369797</v>
+        <v>48.33137119773254</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.16148446623521</v>
+        <v>62.10836877803077</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.70238736347565</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K32" t="n">
         <v>220.0898510449805</v>
@@ -10355,7 +10357,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>118.1107889907763</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
@@ -10367,7 +10369,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.96217271123885</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.45053340571684</v>
       </c>
       <c r="K33" t="n">
-        <v>0.497921811148359</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>1.210862616663547</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>5.252727281233803</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.638256922810882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -10516,16 +10518,16 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>15.45010022873673</v>
       </c>
       <c r="O34" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>88.65890756534107</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.16148446623521</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.70238736347565</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>180.5873005822227</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10604,7 +10606,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.96217271123885</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L36" t="n">
-        <v>1.210862616663547</v>
+        <v>26.31893554337772</v>
       </c>
       <c r="M36" t="n">
-        <v>4.790516758807684</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O36" t="n">
-        <v>52.58668516499377</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.638256922810882</v>
+        <v>27.74632984952505</v>
       </c>
       <c r="R36" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>26.69033971110859</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>15.45010022873673</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>26.22109421534633</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3844868859369797</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.16148446623521</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.70238736347565</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
@@ -10841,7 +10843,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.96217271123885</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,31 +10901,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>0.497921811148359</v>
+        <v>25.60599473786253</v>
       </c>
       <c r="L39" t="n">
-        <v>51.1775158314212</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>4.790516758807684</v>
+        <v>29.89858968552186</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>19.10626784683684</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>21.73896317783378</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.638256922810882</v>
+        <v>115.1910997656674</v>
       </c>
       <c r="R39" t="n">
-        <v>8.335986800753318</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -10996,10 +10998,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>0.3844868859369797</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.16148446623521</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>68.24118952270834</v>
+        <v>144.6403758334584</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11078,7 +11080,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.5009748704715</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>14.03291166268875</v>
+        <v>90.43209797343883</v>
       </c>
       <c r="K42" t="n">
-        <v>25.03672397038105</v>
+        <v>101.4359102811311</v>
       </c>
       <c r="L42" t="n">
-        <v>112.0558931570816</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>29.32931891804037</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>94.93618339010487</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>106.1907157512166</v>
       </c>
       <c r="P42" t="n">
-        <v>21.1696924103523</v>
+        <v>97.56887872110238</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.17705908204357</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.19070643541816</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>16.20854316655743</v>
+        <v>92.60772947730752</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -11233,10 +11235,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>24.92328904516967</v>
+        <v>101.3224753559197</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.7002866254679</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>144.6403758334582</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11315,7 +11317,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>185.9001611812216</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>90.43209797343883</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>101.4359102811311</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>105.7285052287905</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>94.93618339010544</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>106.1907157512166</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>92.60772947730752</v>
       </c>
       <c r="L46" t="n">
         <v>134.8846762812383</v>
@@ -11470,7 +11472,7 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.3224753559197</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.2324922389902</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C11" t="n">
-        <v>336.7715423465172</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D11" t="n">
-        <v>326.1816921961926</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E11" t="n">
-        <v>353.4290206477714</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F11" t="n">
-        <v>378.374696317221</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G11" t="n">
-        <v>386.8013880906447</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H11" t="n">
-        <v>310.9734526912767</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I11" t="n">
-        <v>181.9745401459155</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>121.3677685166593</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S11" t="n">
-        <v>180.518720161755</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T11" t="n">
-        <v>194.594500139641</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U11" t="n">
-        <v>222.8443034833461</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V11" t="n">
-        <v>299.2509090456445</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W11" t="n">
-        <v>320.7396192929226</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X11" t="n">
-        <v>341.2297512539786</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.7365892315632</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.0318342253769</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C12" t="n">
-        <v>144.2071495638253</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D12" t="n">
-        <v>118.9437161401484</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E12" t="n">
-        <v>129.1437310309105</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F12" t="n">
-        <v>116.5678629688935</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G12" t="n">
-        <v>108.8421677387202</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H12" t="n">
-        <v>83.73409481200608</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I12" t="n">
-        <v>60.89528342692469</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.65648472815275</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S12" t="n">
-        <v>143.1818216793474</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T12" t="n">
-        <v>171.6633792703312</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U12" t="n">
-        <v>197.4400326564844</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V12" t="n">
-        <v>204.2992377249349</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W12" t="n">
-        <v>223.1936337364292</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X12" t="n">
-        <v>177.2716357789871</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.181346352814</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="13">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.3306307574469</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C13" t="n">
-        <v>138.7454716741374</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D13" t="n">
-        <v>120.114123593722</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E13" t="n">
-        <v>117.9326132220788</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F13" t="n">
-        <v>116.9196985984409</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G13" t="n">
-        <v>139.4896299339684</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H13" t="n">
-        <v>133.7258230829492</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I13" t="n">
-        <v>126.9491255027679</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J13" t="n">
-        <v>64.85783069218239</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.660693827204</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.7920419526791</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S13" t="n">
-        <v>195.5152486124819</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T13" t="n">
-        <v>199.4442400037911</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U13" t="n">
-        <v>257.8176799320005</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V13" t="n">
-        <v>223.6362938993376</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W13" t="n">
-        <v>258.0216489121006</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X13" t="n">
-        <v>197.2083059645468</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.0833039276044</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C14" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D14" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E14" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G14" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S14" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T14" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U14" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V14" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W14" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3719205617963</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C15" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D15" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E15" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F15" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G15" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H15" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S15" t="n">
-        <v>78.32399098716505</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T15" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U15" t="n">
-        <v>132.582201964302</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V15" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X15" t="n">
-        <v>112.4138050868047</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y15" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D16" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E16" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F16" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G16" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H16" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I16" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.93421126049671</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S16" t="n">
-        <v>130.6574179202995</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T16" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U16" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V16" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W16" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X16" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.3746615468078</v>
+        <v>279.770491503919</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D17" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E17" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F17" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G17" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H17" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I17" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158812</v>
       </c>
       <c r="S17" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T17" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U17" t="n">
-        <v>157.9864727911637</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V17" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W17" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X17" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.17400353319456</v>
+        <v>63.56983349030578</v>
       </c>
       <c r="C18" t="n">
-        <v>79.34931887164296</v>
+        <v>69.74514882875418</v>
       </c>
       <c r="D18" t="n">
-        <v>54.08588544796598</v>
+        <v>44.4817154050772</v>
       </c>
       <c r="E18" t="n">
-        <v>64.28590033872817</v>
+        <v>54.68173029583939</v>
       </c>
       <c r="F18" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382232</v>
       </c>
       <c r="G18" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364908</v>
       </c>
       <c r="H18" t="n">
-        <v>18.87626411982369</v>
+        <v>9.272094076934906</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427626</v>
       </c>
       <c r="T18" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526005</v>
       </c>
       <c r="U18" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V18" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3358030442468</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X18" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y18" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="19">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237574</v>
       </c>
       <c r="C19" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906628</v>
       </c>
       <c r="D19" t="n">
-        <v>55.25629290153958</v>
+        <v>45.6521228586508</v>
       </c>
       <c r="E19" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700761</v>
       </c>
       <c r="F19" t="n">
-        <v>52.06186790625847</v>
+        <v>42.45769786336969</v>
       </c>
       <c r="G19" t="n">
-        <v>74.63179924178598</v>
+        <v>65.0276291988972</v>
       </c>
       <c r="H19" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787802</v>
       </c>
       <c r="I19" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760793</v>
       </c>
       <c r="S19" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T19" t="n">
-        <v>134.5864093116087</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U19" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V19" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W19" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X19" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>289.3746615468078</v>
+        <v>279.770491503919</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D20" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E20" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F20" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G20" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H20" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I20" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158812</v>
       </c>
       <c r="S20" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T20" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U20" t="n">
-        <v>157.9864727911637</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V20" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W20" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X20" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.17400353319456</v>
+        <v>63.56983349030578</v>
       </c>
       <c r="C21" t="n">
-        <v>79.34931887164296</v>
+        <v>69.74514882875418</v>
       </c>
       <c r="D21" t="n">
-        <v>54.08588544796598</v>
+        <v>44.4817154050772</v>
       </c>
       <c r="E21" t="n">
-        <v>64.28590033872817</v>
+        <v>54.68173029583939</v>
       </c>
       <c r="F21" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382232</v>
       </c>
       <c r="G21" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364908</v>
       </c>
       <c r="H21" t="n">
-        <v>18.87626411982369</v>
+        <v>9.272094076934906</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427626</v>
       </c>
       <c r="T21" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526005</v>
       </c>
       <c r="U21" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V21" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W21" t="n">
-        <v>158.3358030442468</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X21" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y21" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237574</v>
       </c>
       <c r="C22" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906628</v>
       </c>
       <c r="D22" t="n">
-        <v>55.25629290153958</v>
+        <v>45.6521228586508</v>
       </c>
       <c r="E22" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700761</v>
       </c>
       <c r="F22" t="n">
-        <v>52.06186790625847</v>
+        <v>42.45769786336969</v>
       </c>
       <c r="G22" t="n">
-        <v>74.63179924178598</v>
+        <v>65.0276291988972</v>
       </c>
       <c r="H22" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787802</v>
       </c>
       <c r="I22" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769673</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760793</v>
       </c>
       <c r="S22" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5864093116087</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U22" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V22" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W22" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X22" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.3746615468078</v>
+        <v>279.770491503919</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9137116543347</v>
+        <v>262.309541611446</v>
       </c>
       <c r="D23" t="n">
-        <v>261.3238615040102</v>
+        <v>251.7196914611214</v>
       </c>
       <c r="E23" t="n">
-        <v>288.571189955589</v>
+        <v>278.9670199127002</v>
       </c>
       <c r="F23" t="n">
-        <v>313.5168656250387</v>
+        <v>303.9126955821499</v>
       </c>
       <c r="G23" t="n">
-        <v>321.9435573984623</v>
+        <v>312.3393873555735</v>
       </c>
       <c r="H23" t="n">
-        <v>246.1156219990944</v>
+        <v>236.5114519562056</v>
       </c>
       <c r="I23" t="n">
-        <v>117.1167094537331</v>
+        <v>107.5125394108444</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.50993782447691</v>
+        <v>46.90576778158812</v>
       </c>
       <c r="S23" t="n">
-        <v>115.6608894695726</v>
+        <v>106.0567194266838</v>
       </c>
       <c r="T23" t="n">
-        <v>129.7366694474586</v>
+        <v>120.1324994045698</v>
       </c>
       <c r="U23" t="n">
-        <v>157.9864727911637</v>
+        <v>148.3823027482749</v>
       </c>
       <c r="V23" t="n">
-        <v>234.3930783534621</v>
+        <v>224.7889083105733</v>
       </c>
       <c r="W23" t="n">
-        <v>255.8817886007402</v>
+        <v>246.2776185578514</v>
       </c>
       <c r="X23" t="n">
-        <v>276.3719205617963</v>
+        <v>266.7677505189075</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.8787585393808</v>
+        <v>283.274588496492</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.17400353319456</v>
+        <v>63.56983349030578</v>
       </c>
       <c r="C24" t="n">
-        <v>79.34931887164296</v>
+        <v>69.74514882875418</v>
       </c>
       <c r="D24" t="n">
-        <v>54.08588544796598</v>
+        <v>44.4817154050772</v>
       </c>
       <c r="E24" t="n">
-        <v>64.28590033872817</v>
+        <v>54.68173029583939</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7100322767111</v>
+        <v>42.10586223382232</v>
       </c>
       <c r="G24" t="n">
-        <v>43.98433704653786</v>
+        <v>34.38016700364908</v>
       </c>
       <c r="H24" t="n">
-        <v>18.87626411982369</v>
+        <v>9.272094076934906</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>78.32399098716505</v>
+        <v>68.71982094427626</v>
       </c>
       <c r="T24" t="n">
-        <v>106.8055485781488</v>
+        <v>97.20137853526005</v>
       </c>
       <c r="U24" t="n">
-        <v>132.582201964302</v>
+        <v>122.9780319214133</v>
       </c>
       <c r="V24" t="n">
-        <v>139.4414070327525</v>
+        <v>129.8372369898637</v>
       </c>
       <c r="W24" t="n">
-        <v>158.3358030442468</v>
+        <v>148.731633001358</v>
       </c>
       <c r="X24" t="n">
-        <v>112.4138050868047</v>
+        <v>102.8096350439159</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.3235156606316</v>
+        <v>102.7193456177428</v>
       </c>
     </row>
     <row r="25">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.47280006526452</v>
+        <v>76.86863002237574</v>
       </c>
       <c r="C25" t="n">
-        <v>73.88764098195506</v>
+        <v>64.28347093906628</v>
       </c>
       <c r="D25" t="n">
-        <v>55.25629290153958</v>
+        <v>45.6521228586508</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0747825298964</v>
+        <v>43.47061248700761</v>
       </c>
       <c r="F25" t="n">
-        <v>52.06186790625847</v>
+        <v>42.45769786336969</v>
       </c>
       <c r="G25" t="n">
-        <v>74.63179924178598</v>
+        <v>65.0276291988972</v>
       </c>
       <c r="H25" t="n">
-        <v>68.8679923907668</v>
+        <v>59.26382234787802</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09129481058551</v>
+        <v>52.48712476769673</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.93421126049671</v>
+        <v>74.33004121760793</v>
       </c>
       <c r="S25" t="n">
-        <v>130.6574179202995</v>
+        <v>121.0532478774107</v>
       </c>
       <c r="T25" t="n">
-        <v>134.5864093116087</v>
+        <v>124.9822392687199</v>
       </c>
       <c r="U25" t="n">
-        <v>192.9598492398181</v>
+        <v>183.3556791969293</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7784632071552</v>
+        <v>149.1742931642664</v>
       </c>
       <c r="W25" t="n">
-        <v>193.1638182199182</v>
+        <v>183.5596481770294</v>
       </c>
       <c r="X25" t="n">
-        <v>132.3504752723644</v>
+        <v>122.7463052294756</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.225473235422</v>
+        <v>115.6213031925332</v>
       </c>
     </row>
     <row r="26">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>245.3903245002699</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>227.9293746077969</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>217.3395244574723</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>244.5868529090511</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
-        <v>269.5325285785008</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>277.9592203519244</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
-        <v>202.1312849525565</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>73.13237240719528</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>12.52560077793905</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>71.67655242303471</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
-        <v>85.75233240092072</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>114.0021357446259</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>190.4087413069243</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>211.8974515542024</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
-        <v>232.3875835152584</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>248.894421492843</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.18966648665671</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>35.3649818251051</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>10.10154840142812</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>20.30156329219031</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>7.725695230173244</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>34.33965394062719</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>62.82121153161097</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>88.59786491776418</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>95.45706998621463</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>114.351465997709</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>68.42946804026684</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
-        <v>68.33917861409373</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.48846301872666</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
-        <v>29.9033039354172</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>11.27195585500172</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
-        <v>9.090445483358536</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>8.077530859720611</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>30.64746219524812</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>24.88365534422894</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>18.10695776404765</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.94987421395885</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>86.67308087376162</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>90.60207226507086</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>148.9755121932803</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>114.7941261606174</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>149.1794811733804</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>88.36613822582652</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.24113618888416</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.3903245002699</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C32" t="n">
-        <v>227.9293746077969</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>217.3395244574723</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>244.5868529090511</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F32" t="n">
-        <v>269.5325285785008</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9592203519244</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H32" t="n">
-        <v>202.1312849525565</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I32" t="n">
-        <v>73.13237240719528</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.52560077793905</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S32" t="n">
-        <v>71.67655242303471</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>85.75233240092072</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>114.0021357446259</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>190.4087413069243</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W32" t="n">
-        <v>211.8974515542024</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X32" t="n">
-        <v>232.3875835152584</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.894421492843</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.18966648665671</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>35.3649818251051</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D33" t="n">
-        <v>10.10154840142812</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>20.30156329219031</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F33" t="n">
-        <v>7.725695230173244</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>34.33965394062719</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
-        <v>62.82121153161097</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U33" t="n">
-        <v>88.59786491776418</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V33" t="n">
-        <v>95.45706998621463</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W33" t="n">
-        <v>114.351465997709</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>68.42946804026684</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.33917861409373</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.48846301872666</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>29.9033039354172</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
-        <v>11.27195585500172</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>9.090445483358536</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>8.077530859720611</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G34" t="n">
-        <v>30.64746219524812</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H34" t="n">
-        <v>24.88365534422894</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>18.10695776404765</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.94987421395885</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>86.67308087376162</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>90.60207226507086</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>148.9755121932803</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V34" t="n">
-        <v>114.7941261606174</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>149.1794811733804</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>88.36613822582652</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.24113618888416</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.3903245002699</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>227.9293746077969</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>217.3395244574723</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>244.5868529090511</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F35" t="n">
-        <v>269.5325285785008</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>277.9592203519244</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H35" t="n">
-        <v>202.1312849525565</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>73.13237240719528</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.52560077793905</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>71.67655242303471</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>85.75233240092072</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>114.0021357446259</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>190.4087413069243</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>211.8974515542024</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>232.3875835152584</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.894421492843</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.18966648665671</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>35.3649818251051</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>10.10154840142812</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>20.30156329219031</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
-        <v>7.725695230173244</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.33965394062719</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>62.82121153161097</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>88.59786491776418</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>95.45706998621463</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>114.351465997709</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>68.42946804026684</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.33917861409373</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.48846301872666</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>29.9033039354172</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>11.27195585500172</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
-        <v>9.090445483358536</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>8.077530859720611</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>30.64746219524812</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>24.88365534422894</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>18.10695776404765</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.94987421395885</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>86.67308087376162</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>90.60207226507086</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>148.9755121932803</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>114.7941261606174</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>149.1794811733804</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>88.36613822582652</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.24113618888416</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.3903245002699</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>227.9293746077969</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>217.3395244574723</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E38" t="n">
-        <v>244.5868529090511</v>
+        <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>269.5325285785008</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>277.9592203519244</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>202.1312849525565</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
-        <v>73.13237240719528</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>12.52560077793905</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>71.67655242303471</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
-        <v>85.75233240092072</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>114.0021357446259</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>190.4087413069243</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>211.8974515542024</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>232.3875835152584</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.894421492843</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.18966648665671</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>35.3649818251051</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>10.10154840142812</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
-        <v>20.30156329219031</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F39" t="n">
-        <v>7.725695230173244</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>34.33965394062719</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>62.82121153161097</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U39" t="n">
-        <v>88.59786491776418</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>95.45706998621463</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W39" t="n">
-        <v>114.351465997709</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
-        <v>68.42946804026684</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.33917861409373</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.48846301872666</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
-        <v>29.9033039354172</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>11.27195585500172</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>9.090445483358536</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>8.077530859720611</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>30.64746219524812</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>24.88365534422894</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>18.10695776404765</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.94987421395885</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>86.67308087376162</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>90.60207226507086</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>148.9755121932803</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>114.7941261606174</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
-        <v>149.1794811733804</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>88.36613822582652</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.24113618888416</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>269.9291266595026</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C41" t="n">
-        <v>252.4681767670296</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D41" t="n">
-        <v>241.878326616705</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E41" t="n">
-        <v>269.1256550682838</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F41" t="n">
-        <v>294.0713307377335</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G41" t="n">
-        <v>302.4980225111571</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H41" t="n">
-        <v>226.6700871117892</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I41" t="n">
-        <v>97.67117456642796</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.06440293717174</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S41" t="n">
-        <v>96.21535458226739</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T41" t="n">
-        <v>110.2911345601534</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U41" t="n">
-        <v>138.5409379038585</v>
+        <v>214.9401242146086</v>
       </c>
       <c r="V41" t="n">
-        <v>214.947543466157</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4362537134351</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X41" t="n">
-        <v>256.9263856744911</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y41" t="n">
-        <v>273.4332236520756</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53.72846864588939</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C42" t="n">
-        <v>59.90378398433779</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D42" t="n">
-        <v>34.64035056066081</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E42" t="n">
-        <v>44.840365451423</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F42" t="n">
-        <v>32.26449738940593</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G42" t="n">
-        <v>24.53880215923269</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.8299155432686</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.99110415818721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>63.75230545941527</v>
       </c>
       <c r="S42" t="n">
-        <v>58.87845609985987</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T42" t="n">
-        <v>87.36001369084366</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>113.1366670769969</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V42" t="n">
-        <v>119.9958721454473</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W42" t="n">
-        <v>138.8902681569417</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X42" t="n">
-        <v>92.96827019949953</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>92.87798077332641</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.02726517795935</v>
+        <v>143.4264514887094</v>
       </c>
       <c r="C43" t="n">
-        <v>54.44210609464989</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D43" t="n">
-        <v>35.81075801423441</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E43" t="n">
-        <v>33.62924764259122</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F43" t="n">
-        <v>32.6163330189533</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G43" t="n">
-        <v>55.18626435448081</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H43" t="n">
-        <v>49.42245750346163</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I43" t="n">
-        <v>42.64575992328034</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>56.95365142344491</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>49.75651455846652</v>
       </c>
       <c r="R43" t="n">
-        <v>64.48867637319154</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S43" t="n">
-        <v>111.2118830329943</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T43" t="n">
-        <v>115.1408744243035</v>
+        <v>191.5400607350536</v>
       </c>
       <c r="U43" t="n">
-        <v>173.5143143525129</v>
+        <v>249.913500663263</v>
       </c>
       <c r="V43" t="n">
-        <v>139.3329283198501</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W43" t="n">
-        <v>173.7182833326131</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X43" t="n">
-        <v>112.9049403850592</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.7799383481168</v>
+        <v>182.1791246588669</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3283129702527</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>328.8673630777797</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>318.2775129274551</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>345.5248413790339</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>370.4705170484835</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>378.8972088219072</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>303.0692734225393</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.070360877178</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>113.4635892479218</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>172.6145408930175</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>186.6903208709035</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>214.9401242146086</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>291.3467297769071</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>312.8354400241851</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>333.3255719852411</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8324099628257</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>130.1276549566395</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3029702950879</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0395368714109</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>121.2395517621731</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>108.663683700156</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9379884699828</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>75.8299155432686</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>52.99110415818721</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>63.75230545941527</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>135.27764241061</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.535853387747</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>196.3950584561974</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2894544676917</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>169.2771670840765</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4264514887094</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>130.8412924054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>112.2099443249845</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0284339533413</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0155193297034</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>131.5854506652309</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>125.8216438142117</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>119.0449462340304</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>56.95365142344491</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>49.75651455846652</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>140.8878626839416</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>187.6110693437444</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>191.5400607350536</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>249.913500663263</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.7321146306001</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>250.1174696433631</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3041266958093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>182.1791246588669</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>337271.860572779</v>
+        <v>430731.4449495492</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436464.6168348148</v>
+        <v>430731.4449495491</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436464.6168348148</v>
+        <v>449888.5513740424</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>436464.6168348148</v>
+        <v>449888.5513740424</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>436464.6168348148</v>
+        <v>449888.5513740424</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>495112.1279370701</v>
+        <v>430731.4449495491</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>495112.12793707</v>
+        <v>462472.6374552585</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>495112.12793707</v>
+        <v>462472.6374552585</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>495112.1279370701</v>
+        <v>462472.6374552585</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>463212.6666821538</v>
+        <v>349416.4739356088</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290269.9949349053</v>
+        <v>349416.4739356088</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.338717038</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="E2" t="n">
-        <v>285339.8890346799</v>
+        <v>430436.6145740752</v>
       </c>
       <c r="F2" t="n">
-        <v>439620.2141160362</v>
+        <v>430436.6145740745</v>
       </c>
       <c r="G2" t="n">
-        <v>439620.2141160362</v>
+        <v>461529.3846477125</v>
       </c>
       <c r="H2" t="n">
-        <v>439620.2141160363</v>
+        <v>461529.3846477124</v>
       </c>
       <c r="I2" t="n">
-        <v>439620.2141160363</v>
+        <v>461529.3846477124</v>
       </c>
       <c r="J2" t="n">
-        <v>430436.6145740753</v>
+        <v>430436.6145740744</v>
       </c>
       <c r="K2" t="n">
-        <v>537861.4343142348</v>
+        <v>430436.6145740748</v>
       </c>
       <c r="L2" t="n">
-        <v>537861.4343142349</v>
+        <v>482402.7228337084</v>
       </c>
       <c r="M2" t="n">
-        <v>537861.4343142346</v>
+        <v>482402.7228337082</v>
       </c>
       <c r="N2" t="n">
-        <v>537861.4343142346</v>
+        <v>482402.7228337083</v>
       </c>
       <c r="O2" t="n">
-        <v>483660.1281049222</v>
+        <v>304183.4524113497</v>
       </c>
       <c r="P2" t="n">
-        <v>215014.8110628928</v>
+        <v>304183.4524113501</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22801.07953959231</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="F3" t="n">
-        <v>51886.26455374591</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10853.37384651718</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19631.04172738615</v>
+        <v>60663.93243461488</v>
       </c>
       <c r="K3" t="n">
-        <v>90243.77200318236</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29124.42295458229</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>168868.3694288606</v>
+        <v>250936.2960691124</v>
       </c>
       <c r="F4" t="n">
-        <v>256121.7419510501</v>
+        <v>250936.2960691124</v>
       </c>
       <c r="G4" t="n">
-        <v>256121.7419510501</v>
+        <v>268480.2235086657</v>
       </c>
       <c r="H4" t="n">
-        <v>256121.7419510501</v>
+        <v>268480.2235086657</v>
       </c>
       <c r="I4" t="n">
-        <v>256121.74195105</v>
+        <v>268480.2235086657</v>
       </c>
       <c r="J4" t="n">
         <v>250936.2960691124</v>
       </c>
       <c r="K4" t="n">
-        <v>311462.1452964236</v>
+        <v>250936.2960691124</v>
       </c>
       <c r="L4" t="n">
-        <v>311462.1452964236</v>
+        <v>280244.4178675696</v>
       </c>
       <c r="M4" t="n">
-        <v>311462.1452964236</v>
+        <v>280244.4178675696</v>
       </c>
       <c r="N4" t="n">
-        <v>311462.1452964236</v>
+        <v>280244.4178675696</v>
       </c>
       <c r="O4" t="n">
-        <v>280952.211719544</v>
+        <v>179526.793684858</v>
       </c>
       <c r="P4" t="n">
-        <v>129008.8866377357</v>
+        <v>179526.793684858</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2396.079944767482</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="F5" t="n">
-        <v>7848.612913228564</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="H5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="I5" t="n">
-        <v>7848.612913228564</v>
+        <v>8656.02588456418</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
       </c>
       <c r="K5" t="n">
-        <v>11546.33214439395</v>
+        <v>7515.485527185614</v>
       </c>
       <c r="L5" t="n">
-        <v>11546.33214439395</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="M5" t="n">
-        <v>11546.33214439395</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="N5" t="n">
-        <v>11546.33214439395</v>
+        <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>9483.379585669421</v>
+        <v>3060.576391710973</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3060.576391710973</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318032.778785307</v>
+        <v>318032.7787853068</v>
       </c>
       <c r="C6" t="n">
         <v>318032.778785307</v>
@@ -26528,40 +26530,40 @@
         <v>318032.778785307</v>
       </c>
       <c r="E6" t="n">
-        <v>91274.36012145948</v>
+        <v>100467.5266966452</v>
       </c>
       <c r="F6" t="n">
-        <v>123763.5946980116</v>
+        <v>171984.8329777765</v>
       </c>
       <c r="G6" t="n">
-        <v>175649.8592517576</v>
+        <v>173539.7614079654</v>
       </c>
       <c r="H6" t="n">
-        <v>175649.8592517576</v>
+        <v>184393.1352544825</v>
       </c>
       <c r="I6" t="n">
-        <v>175649.8592517577</v>
+        <v>184393.1352544825</v>
       </c>
       <c r="J6" t="n">
-        <v>152353.7912503912</v>
+        <v>111320.9005431616</v>
       </c>
       <c r="K6" t="n">
-        <v>124609.1848702349</v>
+        <v>171984.8329777768</v>
       </c>
       <c r="L6" t="n">
-        <v>214852.9568734174</v>
+        <v>163598.3604500385</v>
       </c>
       <c r="M6" t="n">
-        <v>214852.9568734171</v>
+        <v>192722.7834046205</v>
       </c>
       <c r="N6" t="n">
-        <v>214852.9568734171</v>
+        <v>192722.7834046207</v>
       </c>
       <c r="O6" t="n">
-        <v>193224.5367997088</v>
+        <v>121596.0823347808</v>
       </c>
       <c r="P6" t="n">
-        <v>86005.92442515717</v>
+        <v>121596.0823347812</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I2" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F2" t="n">
-        <v>64.85783069218239</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.56671730814647</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.53880215923269</v>
+        <v>75.8299155432686</v>
       </c>
       <c r="K2" t="n">
-        <v>112.8047150039779</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K2" t="n">
-        <v>64.85783069218239</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.56671730814647</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.53880215923269</v>
+        <v>75.8299155432686</v>
       </c>
       <c r="P2" t="n">
-        <v>112.8047150039779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="12">
@@ -28166,43 +28168,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K12" t="n">
-        <v>20.97269108594535</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>65.78242794726793</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.50134942449039</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28366,34 +28368,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="15">
@@ -28403,37 +28405,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28442,7 +28444,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>65.78242794726917</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y15" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N16" t="n">
-        <v>70.01938508750463</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="18">
@@ -28640,34 +28642,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I18" t="n">
-        <v>93.35918011667277</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K18" t="n">
-        <v>68.69826461415454</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28682,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.35918011667277</v>
+        <v>79.20645423924327</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y18" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="21">
@@ -28877,43 +28879,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I21" t="n">
-        <v>93.35918011667277</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>93.35918011667277</v>
+        <v>79.20645423924437</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -28922,31 +28924,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.69826461415563</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y21" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.35918011667277</v>
+        <v>90.30892318693071</v>
       </c>
       <c r="R23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I24" t="n">
-        <v>93.35918011667277</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29147,43 +29149,43 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P24" t="n">
-        <v>68.69826461415563</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="D25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="E25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="F25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="H25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="I25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="K25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="M25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="R25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="S25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="T25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="U25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="V25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="W25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="X25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.35918011667277</v>
+        <v>102.9633501595616</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29298,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
-        <v>76.81821214870462</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29393,10 +29395,10 @@
         <v>89.39663285141508</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.78242794726917</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>89.39663285141508</v>
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>137.3435171632106</v>
+        <v>62.44287420274862</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M30" t="n">
-        <v>90.00955927944878</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y30" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29706,37 +29708,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.3435171632106</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="33">
@@ -29825,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>97.38709326094985</v>
       </c>
       <c r="K33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>137.3435171632106</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y33" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29942,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>49.06909648380655</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29985,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>137.3435171632106</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>39.50255046275785</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.3435171632106</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30062,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O36" t="n">
-        <v>90.00955927945067</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R36" t="n">
-        <v>137.3435171632106</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P37" t="n">
-        <v>137.3435171632106</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>137.3435171632106</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y38" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30301,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30323,52 +30325,52 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L39" t="n">
-        <v>87.37686394845298</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q39" t="n">
-        <v>137.3435171632106</v>
+        <v>24.79067432035411</v>
       </c>
       <c r="R39" t="n">
-        <v>137.3435171632106</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y39" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="C41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="D41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="E41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="F41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="G41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="H41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="I41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="J41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="S41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="T41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="U41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="V41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="W41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="X41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="C42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="D42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="E42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="F42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="G42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="J42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="K42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="L42" t="n">
-        <v>26.49848662279258</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>112.8047150039779</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>36.40552869322843</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="P42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.8047150039779</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="S42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="T42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="U42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="V42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="W42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="X42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="C43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="D43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="E43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="F43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="G43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="H43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="J43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="K43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="R43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="S43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="T43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="U43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="V43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="W43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="X43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.8047150039779</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>36.40552869322809</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
     <row r="45">
@@ -30773,46 +30775,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>36.40552869322786</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1753545.989543015</v>
+        <v>1699381.403212395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8112558.798638831</v>
+        <v>8112558.798638825</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11739719.61562467</v>
+        <v>11739719.61562466</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5522388.544570374</v>
+        <v>5522388.544570376</v>
       </c>
     </row>
     <row r="11">
@@ -8771,16 +8771,16 @@
         <v>37.44099381525162</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>48.44480612294392</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>52.73740107060324</v>
+        <v>76.35160597475038</v>
       </c>
       <c r="N12" t="n">
-        <v>65.55928413606537</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8935,7 +8935,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>140.9496003758576</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -8947,7 +8947,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>132.9090570230344</v>
+        <v>187.2658036311799</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,16 +9011,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>49.1577469284591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>52.73740107060324</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>76.81381649717527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>78.08255436712473</v>
+        <v>78.08255436712469</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -9172,16 +9172,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>127.3828830677111</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621251</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>128.2696455957079</v>
       </c>
       <c r="Q17" t="n">
         <v>119.3423397148879</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.87427650710514</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -9260,13 +9260,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>31.01105725476869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.77531984677825</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>42.7161538044024</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.03207127983455</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>26.04990801097382</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>31.92132612167673</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>35.9624337880435</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>24.72219430567164</v>
+        <v>25.60355988346869</v>
       </c>
       <c r="O19" t="n">
-        <v>35.49318829228123</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>34.76465388958606</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.54165146988429</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>78.08255436712473</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -9409,16 +9409,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>127.3828830677111</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>126.4497134370293</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>127.1348612621251</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>128.2696455957079</v>
       </c>
       <c r="Q20" t="n">
         <v>119.3423397148879</v>
@@ -9479,19 +9479,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>23.87427650710514</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>59.34792554062982</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>28.37836192377175</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9503,7 +9503,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>42.7161538044024</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.03207127983455</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>26.04990801097382</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>31.92132612167673</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>35.9624337880435</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>24.72219430567164</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>35.49318829228123</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>34.76465388958606</v>
+        <v>72.55638842507572</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.54165146988429</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>78.08255436712473</v>
+        <v>78.08255436712469</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -9646,7 +9646,7 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>127.3828830677111</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -9658,7 +9658,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.9967666875188</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,31 +9716,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>23.87427650710514</v>
+        <v>23.87427650710509</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>34.87808881479739</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>39.17068376245676</v>
+        <v>39.17068376245672</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>39.63289428488288</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>37.01842392645992</v>
       </c>
       <c r="R24" t="n">
-        <v>42.7161538044024</v>
+        <v>42.71615380440235</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>24.03207127983455</v>
+        <v>24.03207127983451</v>
       </c>
       <c r="K25" t="n">
-        <v>26.04990801097382</v>
+        <v>26.04990801097378</v>
       </c>
       <c r="L25" t="n">
-        <v>31.92132612167673</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>35.9624337880435</v>
+        <v>35.96243378804346</v>
       </c>
       <c r="N25" t="n">
-        <v>24.72219430567164</v>
+        <v>24.72219430567159</v>
       </c>
       <c r="O25" t="n">
-        <v>35.49318829228123</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>34.76465388958606</v>
+        <v>85.84620737317715</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.54165146988429</v>
+        <v>48.54165146988424</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>37.44099381525162</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>48.44480612294392</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>49.1577469284591</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9968,10 +9968,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>53.19961159302936</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>68.19197946706107</v>
+        <v>68.93857079332015</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>118.6030303239377</v>
+        <v>91.64927167527121</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -10199,16 +10199,16 @@
         <v>49.1577469284591</v>
       </c>
       <c r="M30" t="n">
-        <v>52.73740107060324</v>
+        <v>52.73740107060348</v>
       </c>
       <c r="N30" t="n">
-        <v>41.94507923191823</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>44.57777456291517</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10284,7 +10284,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>49.05990560042771</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>48.33137119773254</v>
@@ -10354,13 +10354,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>123.5309707334908</v>
       </c>
       <c r="M32" t="n">
-        <v>118.1107889907763</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>117.1776193600945</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.45053340571684</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -10436,16 +10436,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>29.89858968552186</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>30.36080020794797</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>83.19472265961609</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10512,19 +10512,19 @@
         <v>16.77781393403892</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>22.64923204474182</v>
       </c>
       <c r="M34" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>15.45010022873673</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>25.49255981265115</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>39.26955739294938</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>68.81046029018982</v>
       </c>
       <c r="K35" t="n">
-        <v>180.5873005822227</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>123.5309707334908</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
@@ -10606,7 +10606,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>110.070245637953</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>14.60218243017023</v>
       </c>
       <c r="K36" t="n">
-        <v>25.60599473786253</v>
+        <v>111.3636504447063</v>
       </c>
       <c r="L36" t="n">
-        <v>26.31893554337772</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>29.89858968552186</v>
       </c>
       <c r="N36" t="n">
-        <v>19.10626784683684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>30.36080020794797</v>
       </c>
       <c r="P36" t="n">
-        <v>21.73896317783378</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.74632984952505</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>14.75997720289965</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>16.77781393403892</v>
       </c>
       <c r="L37" t="n">
-        <v>22.64923204474182</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>26.69033971110859</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>15.45010022873673</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>26.22109421534633</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>25.49255981265115</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>39.26955739294938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>14.60218243017023</v>
       </c>
       <c r="K39" t="n">
-        <v>25.60599473786253</v>
+        <v>125.1283747378614</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10916,16 +10916,16 @@
         <v>19.10626784683684</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>30.36080020794797</v>
       </c>
       <c r="P39" t="n">
         <v>21.73896317783378</v>
       </c>
       <c r="Q39" t="n">
-        <v>115.1910997656674</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>33.44405972746749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>144.6403758334584</v>
+        <v>144.6403758334583</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>90.43209797343883</v>
+        <v>90.43209797343876</v>
       </c>
       <c r="K42" t="n">
-        <v>101.4359102811311</v>
+        <v>111.0524650302865</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>102.1488510866462</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>94.93618339010487</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>106.1907157512166</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>97.56887872110238</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11220,19 +11220,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>92.60772947730752</v>
+        <v>92.60772947730744</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>98.47914758801035</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>102.5202552543771</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>91.28001577200526</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>102.0510097586149</v>
       </c>
       <c r="P43" t="n">
         <v>101.3224753559197</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>144.6403758334582</v>
+        <v>149.7627617802448</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>90.43209797343883</v>
+        <v>90.43209797343876</v>
       </c>
       <c r="K45" t="n">
-        <v>101.4359102811311</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>102.1488510866462</v>
       </c>
       <c r="M45" t="n">
-        <v>105.7285052287905</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>94.93618339010544</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>106.1907157512166</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>97.56887872110231</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11457,19 +11457,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>92.60772947730752</v>
+        <v>92.60772947730744</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>98.47914758801035</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>102.5202552543771</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>91.28001577200526</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>102.0510097586149</v>
       </c>
       <c r="P46" t="n">
         <v>101.3224753559197</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>279.770491503919</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C17" t="n">
         <v>262.309541611446</v>
@@ -23743,16 +23743,16 @@
         <v>278.9670199127002</v>
       </c>
       <c r="F17" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G17" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H17" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I17" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.90576778158812</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S17" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T17" t="n">
         <v>120.1324994045698</v>
@@ -23797,7 +23797,7 @@
         <v>246.2776185578514</v>
       </c>
       <c r="X17" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y17" t="n">
         <v>283.274588496492</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.56983349030578</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C18" t="n">
-        <v>69.74514882875418</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D18" t="n">
-        <v>44.4817154050772</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E18" t="n">
-        <v>54.68173029583939</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F18" t="n">
-        <v>42.10586223382232</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G18" t="n">
-        <v>34.38016700364908</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H18" t="n">
-        <v>9.272094076934906</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>68.71982094427626</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T18" t="n">
-        <v>97.20137853526005</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U18" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V18" t="n">
         <v>129.8372369898637</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.86863002237574</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C19" t="n">
-        <v>64.28347093906628</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D19" t="n">
-        <v>45.6521228586508</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E19" t="n">
-        <v>43.47061248700761</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F19" t="n">
-        <v>42.45769786336969</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G19" t="n">
-        <v>65.0276291988972</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H19" t="n">
-        <v>59.26382234787802</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I19" t="n">
-        <v>52.48712476769673</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>74.33004121760793</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S19" t="n">
         <v>121.0532478774107</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>279.770491503919</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C20" t="n">
         <v>262.309541611446</v>
@@ -23980,16 +23980,16 @@
         <v>278.9670199127002</v>
       </c>
       <c r="F20" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G20" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H20" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I20" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.90576778158812</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S20" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T20" t="n">
         <v>120.1324994045698</v>
@@ -24034,7 +24034,7 @@
         <v>246.2776185578514</v>
       </c>
       <c r="X20" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y20" t="n">
         <v>283.274588496492</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.56983349030578</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C21" t="n">
-        <v>69.74514882875418</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D21" t="n">
-        <v>44.4817154050772</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E21" t="n">
-        <v>54.68173029583939</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F21" t="n">
-        <v>42.10586223382232</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G21" t="n">
-        <v>34.38016700364908</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H21" t="n">
-        <v>9.272094076934906</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>68.71982094427626</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T21" t="n">
-        <v>97.20137853526005</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U21" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V21" t="n">
         <v>129.8372369898637</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.86863002237574</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C22" t="n">
-        <v>64.28347093906628</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D22" t="n">
-        <v>45.6521228586508</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E22" t="n">
-        <v>43.47061248700761</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F22" t="n">
-        <v>42.45769786336969</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G22" t="n">
-        <v>65.0276291988972</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H22" t="n">
-        <v>59.26382234787802</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I22" t="n">
-        <v>52.48712476769673</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.33004121760793</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S22" t="n">
         <v>121.0532478774107</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>279.770491503919</v>
+        <v>279.7704915039189</v>
       </c>
       <c r="C23" t="n">
         <v>262.309541611446</v>
@@ -24217,16 +24217,16 @@
         <v>278.9670199127002</v>
       </c>
       <c r="F23" t="n">
-        <v>303.9126955821499</v>
+        <v>303.9126955821498</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3393873555735</v>
+        <v>312.3393873555734</v>
       </c>
       <c r="H23" t="n">
-        <v>236.5114519562056</v>
+        <v>236.5114519562055</v>
       </c>
       <c r="I23" t="n">
-        <v>107.5125394108444</v>
+        <v>107.5125394108443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>46.90576778158812</v>
+        <v>46.90576778158808</v>
       </c>
       <c r="S23" t="n">
-        <v>106.0567194266838</v>
+        <v>106.0567194266837</v>
       </c>
       <c r="T23" t="n">
         <v>120.1324994045698</v>
@@ -24271,7 +24271,7 @@
         <v>246.2776185578514</v>
       </c>
       <c r="X23" t="n">
-        <v>266.7677505189075</v>
+        <v>266.7677505189074</v>
       </c>
       <c r="Y23" t="n">
         <v>283.274588496492</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63.56983349030578</v>
+        <v>63.56983349030574</v>
       </c>
       <c r="C24" t="n">
-        <v>69.74514882875418</v>
+        <v>69.74514882875414</v>
       </c>
       <c r="D24" t="n">
-        <v>44.4817154050772</v>
+        <v>44.48171540507715</v>
       </c>
       <c r="E24" t="n">
-        <v>54.68173029583939</v>
+        <v>54.68173029583934</v>
       </c>
       <c r="F24" t="n">
-        <v>42.10586223382232</v>
+        <v>42.10586223382228</v>
       </c>
       <c r="G24" t="n">
-        <v>34.38016700364908</v>
+        <v>34.38016700364903</v>
       </c>
       <c r="H24" t="n">
-        <v>9.272094076934906</v>
+        <v>9.272094076934863</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>68.71982094427626</v>
+        <v>68.71982094427622</v>
       </c>
       <c r="T24" t="n">
-        <v>97.20137853526005</v>
+        <v>97.20137853526001</v>
       </c>
       <c r="U24" t="n">
-        <v>122.9780319214133</v>
+        <v>122.9780319214132</v>
       </c>
       <c r="V24" t="n">
         <v>129.8372369898637</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.86863002237574</v>
+        <v>76.8686300223757</v>
       </c>
       <c r="C25" t="n">
-        <v>64.28347093906628</v>
+        <v>64.28347093906623</v>
       </c>
       <c r="D25" t="n">
-        <v>45.6521228586508</v>
+        <v>45.65212285865076</v>
       </c>
       <c r="E25" t="n">
-        <v>43.47061248700761</v>
+        <v>43.47061248700757</v>
       </c>
       <c r="F25" t="n">
-        <v>42.45769786336969</v>
+        <v>42.45769786336965</v>
       </c>
       <c r="G25" t="n">
-        <v>65.0276291988972</v>
+        <v>65.02762919889716</v>
       </c>
       <c r="H25" t="n">
-        <v>59.26382234787802</v>
+        <v>59.26382234787798</v>
       </c>
       <c r="I25" t="n">
-        <v>52.48712476769673</v>
+        <v>52.48712476769668</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>74.33004121760793</v>
+        <v>74.33004121760789</v>
       </c>
       <c r="S25" t="n">
         <v>121.0532478774107</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.3283129702527</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C41" t="n">
-        <v>328.8673630777797</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D41" t="n">
-        <v>318.2775129274551</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E41" t="n">
-        <v>345.5248413790339</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F41" t="n">
         <v>370.4705170484835</v>
       </c>
       <c r="G41" t="n">
-        <v>378.8972088219072</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H41" t="n">
-        <v>303.0692734225393</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I41" t="n">
         <v>174.070360877178</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.4635892479218</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S41" t="n">
-        <v>172.6145408930175</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T41" t="n">
-        <v>186.6903208709035</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U41" t="n">
-        <v>214.9401242146086</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V41" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W41" t="n">
         <v>312.8354400241851</v>
@@ -25696,7 +25696,7 @@
         <v>333.3255719852411</v>
       </c>
       <c r="Y41" t="n">
-        <v>349.8324099628257</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C42" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D42" t="n">
-        <v>111.0395368714109</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E42" t="n">
-        <v>121.2395517621731</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F42" t="n">
-        <v>108.663683700156</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9379884699828</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H42" t="n">
-        <v>75.8299155432686</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I42" t="n">
-        <v>52.99110415818721</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>63.75230545941527</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S42" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T42" t="n">
         <v>163.7592000015937</v>
       </c>
       <c r="U42" t="n">
-        <v>189.535853387747</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V42" t="n">
-        <v>196.3950584561974</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W42" t="n">
         <v>215.2894544676917</v>
@@ -25775,7 +25775,7 @@
         <v>169.3674565102496</v>
       </c>
       <c r="Y42" t="n">
-        <v>169.2771670840765</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>143.4264514887094</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C43" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2099443249845</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E43" t="n">
-        <v>110.0284339533413</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F43" t="n">
-        <v>109.0155193297034</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G43" t="n">
-        <v>131.5854506652309</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8216438142117</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I43" t="n">
-        <v>119.0449462340304</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J43" t="n">
-        <v>56.95365142344491</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.75651455846652</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R43" t="n">
-        <v>140.8878626839416</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S43" t="n">
-        <v>187.6110693437444</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T43" t="n">
-        <v>191.5400607350536</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U43" t="n">
-        <v>249.913500663263</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V43" t="n">
         <v>215.7321146306001</v>
@@ -25851,10 +25851,10 @@
         <v>250.1174696433631</v>
       </c>
       <c r="X43" t="n">
-        <v>189.3041266958093</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.1791246588669</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>346.3283129702527</v>
+        <v>346.3283129702526</v>
       </c>
       <c r="C44" t="n">
-        <v>328.8673630777797</v>
+        <v>328.8673630777796</v>
       </c>
       <c r="D44" t="n">
-        <v>318.2775129274551</v>
+        <v>318.277512927455</v>
       </c>
       <c r="E44" t="n">
-        <v>345.5248413790339</v>
+        <v>345.5248413790338</v>
       </c>
       <c r="F44" t="n">
         <v>370.4705170484835</v>
       </c>
       <c r="G44" t="n">
-        <v>378.8972088219072</v>
+        <v>378.8972088219071</v>
       </c>
       <c r="H44" t="n">
-        <v>303.0692734225393</v>
+        <v>303.0692734225392</v>
       </c>
       <c r="I44" t="n">
         <v>174.070360877178</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.4635892479218</v>
+        <v>113.4635892479217</v>
       </c>
       <c r="S44" t="n">
-        <v>172.6145408930175</v>
+        <v>172.6145408930174</v>
       </c>
       <c r="T44" t="n">
-        <v>186.6903208709035</v>
+        <v>186.6903208709034</v>
       </c>
       <c r="U44" t="n">
-        <v>214.9401242146086</v>
+        <v>214.9401242146085</v>
       </c>
       <c r="V44" t="n">
-        <v>291.3467297769071</v>
+        <v>291.346729776907</v>
       </c>
       <c r="W44" t="n">
         <v>312.8354400241851</v>
@@ -25933,7 +25933,7 @@
         <v>333.3255719852411</v>
       </c>
       <c r="Y44" t="n">
-        <v>349.8324099628257</v>
+        <v>349.8324099628256</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.1276549566395</v>
+        <v>130.1276549566394</v>
       </c>
       <c r="C45" t="n">
-        <v>136.3029702950879</v>
+        <v>136.3029702950878</v>
       </c>
       <c r="D45" t="n">
-        <v>111.0395368714109</v>
+        <v>111.0395368714108</v>
       </c>
       <c r="E45" t="n">
-        <v>121.2395517621731</v>
+        <v>121.239551762173</v>
       </c>
       <c r="F45" t="n">
-        <v>108.663683700156</v>
+        <v>108.6636837001559</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9379884699828</v>
+        <v>100.9379884699827</v>
       </c>
       <c r="H45" t="n">
-        <v>75.8299155432686</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="I45" t="n">
-        <v>52.99110415818721</v>
+        <v>52.99110415818714</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>63.75230545941527</v>
+        <v>63.7523054594152</v>
       </c>
       <c r="S45" t="n">
-        <v>135.27764241061</v>
+        <v>135.2776424106099</v>
       </c>
       <c r="T45" t="n">
         <v>163.7592000015937</v>
       </c>
       <c r="U45" t="n">
-        <v>189.535853387747</v>
+        <v>189.5358533877469</v>
       </c>
       <c r="V45" t="n">
-        <v>196.3950584561974</v>
+        <v>196.3950584561973</v>
       </c>
       <c r="W45" t="n">
         <v>215.2894544676917</v>
@@ -26012,7 +26012,7 @@
         <v>169.3674565102496</v>
       </c>
       <c r="Y45" t="n">
-        <v>169.2771670840765</v>
+        <v>169.2771670840764</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4264514887094</v>
+        <v>143.4264514887093</v>
       </c>
       <c r="C46" t="n">
-        <v>130.8412924054</v>
+        <v>130.8412924053999</v>
       </c>
       <c r="D46" t="n">
-        <v>112.2099443249845</v>
+        <v>112.2099443249844</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0284339533413</v>
+        <v>110.0284339533412</v>
       </c>
       <c r="F46" t="n">
-        <v>109.0155193297034</v>
+        <v>109.0155193297033</v>
       </c>
       <c r="G46" t="n">
-        <v>131.5854506652309</v>
+        <v>131.5854506652308</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8216438142117</v>
+        <v>125.8216438142116</v>
       </c>
       <c r="I46" t="n">
-        <v>119.0449462340304</v>
+        <v>119.0449462340303</v>
       </c>
       <c r="J46" t="n">
-        <v>56.95365142344491</v>
+        <v>56.95365142344484</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.75651455846652</v>
+        <v>49.75651455846645</v>
       </c>
       <c r="R46" t="n">
-        <v>140.8878626839416</v>
+        <v>140.8878626839415</v>
       </c>
       <c r="S46" t="n">
-        <v>187.6110693437444</v>
+        <v>187.6110693437443</v>
       </c>
       <c r="T46" t="n">
-        <v>191.5400607350536</v>
+        <v>191.5400607350535</v>
       </c>
       <c r="U46" t="n">
-        <v>249.913500663263</v>
+        <v>249.9135006632629</v>
       </c>
       <c r="V46" t="n">
         <v>215.7321146306001</v>
@@ -26088,10 +26088,10 @@
         <v>250.1174696433631</v>
       </c>
       <c r="X46" t="n">
-        <v>189.3041266958093</v>
+        <v>189.3041266958092</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.1791246588669</v>
+        <v>182.1791246588668</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449888.5513740424</v>
+        <v>449888.5513740428</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>449888.5513740424</v>
+        <v>449888.5513740428</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449888.5513740424</v>
+        <v>449888.5513740428</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>430731.4449495491</v>
+        <v>430731.4449495492</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430731.4449495491</v>
+        <v>430731.4449495492</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349416.4739356088</v>
+        <v>349416.4739356089</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349416.4739356088</v>
+        <v>349416.4739356089</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.338717038</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170382</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170382</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
+        <v>430436.6145740751</v>
+      </c>
+      <c r="F2" t="n">
+        <v>430436.6145740743</v>
+      </c>
+      <c r="G2" t="n">
+        <v>461529.3846477132</v>
+      </c>
+      <c r="H2" t="n">
+        <v>461529.3846477132</v>
+      </c>
+      <c r="I2" t="n">
+        <v>461529.3846477131</v>
+      </c>
+      <c r="J2" t="n">
+        <v>430436.6145740751</v>
+      </c>
+      <c r="K2" t="n">
         <v>430436.6145740752</v>
       </c>
-      <c r="F2" t="n">
-        <v>430436.6145740745</v>
-      </c>
-      <c r="G2" t="n">
-        <v>461529.3846477125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>461529.3846477124</v>
-      </c>
-      <c r="I2" t="n">
-        <v>461529.3846477124</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430436.6145740744</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430436.6145740748</v>
-      </c>
       <c r="L2" t="n">
-        <v>482402.7228337084</v>
+        <v>482402.7228337079</v>
       </c>
       <c r="M2" t="n">
-        <v>482402.7228337082</v>
+        <v>482402.7228337079</v>
       </c>
       <c r="N2" t="n">
-        <v>482402.7228337083</v>
+        <v>482402.7228337079</v>
       </c>
       <c r="O2" t="n">
-        <v>304183.4524113497</v>
+        <v>304183.4524113503</v>
       </c>
       <c r="P2" t="n">
-        <v>304183.4524113501</v>
+        <v>304183.4524113504</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10853.37384651718</v>
+        <v>10853.37384651722</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60663.93243461488</v>
+        <v>60663.93243461482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29124.42295458229</v>
+        <v>29124.42295458233</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>250936.2960691124</v>
       </c>
       <c r="G4" t="n">
-        <v>268480.2235086657</v>
+        <v>268480.2235086658</v>
       </c>
       <c r="H4" t="n">
-        <v>268480.2235086657</v>
+        <v>268480.2235086658</v>
       </c>
       <c r="I4" t="n">
-        <v>268480.2235086657</v>
+        <v>268480.2235086658</v>
       </c>
       <c r="J4" t="n">
         <v>250936.2960691124</v>
@@ -26484,13 +26484,13 @@
         <v>7515.485527185614</v>
       </c>
       <c r="G5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="H5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="I5" t="n">
-        <v>8656.02588456418</v>
+        <v>8656.025884564184</v>
       </c>
       <c r="J5" t="n">
         <v>7515.485527185614</v>
@@ -26508,10 +26508,10 @@
         <v>9435.521561518022</v>
       </c>
       <c r="O5" t="n">
-        <v>3060.576391710973</v>
+        <v>3060.576391710979</v>
       </c>
       <c r="P5" t="n">
-        <v>3060.576391710973</v>
+        <v>3060.576391710979</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318032.7787853068</v>
+        <v>317988.6430066259</v>
       </c>
       <c r="C6" t="n">
-        <v>318032.778785307</v>
+        <v>317988.6430066259</v>
       </c>
       <c r="D6" t="n">
-        <v>318032.778785307</v>
+        <v>317988.6430066259</v>
       </c>
       <c r="E6" t="n">
-        <v>100467.5266966452</v>
+        <v>90702.39781438987</v>
       </c>
       <c r="F6" t="n">
-        <v>171984.8329777765</v>
+        <v>162219.7040955211</v>
       </c>
       <c r="G6" t="n">
-        <v>173539.7614079654</v>
+        <v>164551.9517775517</v>
       </c>
       <c r="H6" t="n">
-        <v>184393.1352544825</v>
+        <v>175405.3256240689</v>
       </c>
       <c r="I6" t="n">
-        <v>184393.1352544825</v>
+        <v>175405.3256240688</v>
       </c>
       <c r="J6" t="n">
-        <v>111320.9005431616</v>
+        <v>101555.7716609071</v>
       </c>
       <c r="K6" t="n">
-        <v>171984.8329777768</v>
+        <v>162219.704095522</v>
       </c>
       <c r="L6" t="n">
-        <v>163598.3604500385</v>
+        <v>155132.3842742736</v>
       </c>
       <c r="M6" t="n">
-        <v>192722.7834046205</v>
+        <v>184256.8072288559</v>
       </c>
       <c r="N6" t="n">
-        <v>192722.7834046207</v>
+        <v>184256.8072288559</v>
       </c>
       <c r="O6" t="n">
-        <v>121596.0823347808</v>
+        <v>108674.6243984579</v>
       </c>
       <c r="P6" t="n">
-        <v>121596.0823347812</v>
+        <v>108674.6243984581</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="P2" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.56671730814647</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.8299155432686</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.56671730814647</v>
+        <v>13.56671730814652</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>75.8299155432686</v>
+        <v>75.82991554326853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28195,16 +28195,16 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>89.39663285141508</v>
+        <v>65.78242794726793</v>
       </c>
       <c r="N12" t="n">
-        <v>65.78242794726793</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28359,7 +28359,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28371,7 +28371,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.39663285141508</v>
+        <v>35.03988624326959</v>
       </c>
       <c r="R14" t="n">
         <v>89.39663285141508</v>
@@ -28435,16 +28435,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>89.39663285141508</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>65.78242794726917</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -28596,16 +28596,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q17" t="n">
         <v>102.9633501595616</v>
@@ -28666,7 +28666,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>102.9633501595616</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28684,13 +28684,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.20645423924327</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9633501595616</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>102.9633501595616</v>
@@ -28745,28 +28745,28 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J19" t="n">
-        <v>102.9633501595616</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>102.9633501595616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>102.9633501595616</v>
+        <v>102.0819845817645</v>
       </c>
       <c r="O19" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>102.9633501595616</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.9633501595616</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>102.9633501595616</v>
@@ -28824,25 +28824,25 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>102.9633501595616</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="Q20" t="n">
         <v>102.9633501595616</v>
@@ -28903,19 +28903,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>102.9633501595616</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>79.20645423924437</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -28927,7 +28927,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9633501595616</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>102.9633501595616</v>
@@ -28982,28 +28982,28 @@
         <v>102.9633501595616</v>
       </c>
       <c r="J22" t="n">
-        <v>102.9633501595616</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>102.9633501595616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.9633501595616</v>
+        <v>65.17161562407189</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.9633501595616</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>102.9633501595616</v>
@@ -29070,7 +29070,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29082,7 +29082,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.30892318693071</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>102.9633501595616</v>
@@ -29143,7 +29143,7 @@
         <v>102.9633501595616</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>102.9633501595616</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -29155,13 +29155,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>102.9633501595616</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>102.9633501595616</v>
@@ -29225,7 +29225,7 @@
         <v>102.9633501595616</v>
       </c>
       <c r="L25" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>102.9633501595616</v>
@@ -29234,10 +29234,10 @@
         <v>102.9633501595616</v>
       </c>
       <c r="O25" t="n">
-        <v>102.9633501595616</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>102.9633501595616</v>
+        <v>51.88179667597046</v>
       </c>
       <c r="Q25" t="n">
         <v>102.9633501595616</v>
@@ -29377,13 +29377,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K27" t="n">
         <v>89.39663285141508</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29392,10 +29392,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.78242794726917</v>
+        <v>65.03583662101009</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -29535,7 +29535,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J29" t="n">
-        <v>62.44287420274862</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29623,16 +29623,16 @@
         <v>89.39663285141508</v>
       </c>
       <c r="M30" t="n">
+        <v>89.39663285141484</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="N30" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>89.39663285141508</v>
@@ -29778,13 +29778,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29848,10 +29848,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>97.38709326094985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29860,16 +29860,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>50.77968475471415</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -29936,19 +29936,19 @@
         <v>112.2354442364965</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>112.2354442364965</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>112.2354442364965</v>
@@ -30009,13 +30009,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K35" t="n">
-        <v>39.50255046275785</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30030,7 +30030,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R35" t="n">
         <v>112.2354442364965</v>
@@ -30085,34 +30085,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K36" t="n">
-        <v>112.2354442364965</v>
+        <v>26.47778852965267</v>
       </c>
       <c r="L36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="N36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="R36" t="n">
-        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>112.2354442364965</v>
@@ -30167,28 +30167,28 @@
         <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>112.2354442364965</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Q37" t="n">
         <v>112.2354442364965</v>
-      </c>
-      <c r="N37" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="O37" t="n">
-        <v>112.2354442364965</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>112.2354442364965</v>
@@ -30328,7 +30328,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="K39" t="n">
-        <v>112.2354442364965</v>
+        <v>12.71306423649759</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30340,16 +30340,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="Q39" t="n">
-        <v>24.79067432035411</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S39" t="n">
         <v>112.2354442364965</v>
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30504,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K42" t="n">
-        <v>36.40552869322786</v>
+        <v>26.7889739440725</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>36.40552869322843</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>36.40552869322786</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>36.40552869322786</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="P43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="44">
@@ -30696,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J44" t="n">
-        <v>36.40552869322809</v>
+        <v>31.28314274644152</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30741,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y44" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K45" t="n">
-        <v>36.40552869322786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="M45" t="n">
-        <v>36.40552869322786</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>36.40552869322786</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>36.40552869322786</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="C46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="D46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="E46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="F46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="G46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="H46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="I46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="J46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="K46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="P46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="R46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="S46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="T46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="U46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="V46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="W46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="X46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.40552869322786</v>
+        <v>36.40552869322794</v>
       </c>
     </row>
   </sheetData>
